--- a/biology/Médecine/Wan_Yanhai/Wan_Yanhai.xlsx
+++ b/biology/Médecine/Wan_Yanhai/Wan_Yanhai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wan Yanhai (chinois : 万延海 ; pinyin : Wàn Yánhǎi) est un des plus éminents militants chinois en matière de SIDA en Chine né le 20 novembre 1963. Il a fondé l'Institut d'Aizhixing de Santé Education, (愛知行健康教育研究所) une ONG sur le SIDA (Aizhi Action Project). Il fut enlevé le 24 août 2002 car il avait contribué à diffuser l'information sur le scandale du sang contaminé en chine; il fut libéré le 20 septembre 2002.
-En juillet 2000, l'écrivain Wang Lixiong a présenté Hu Jia à Wan Yanhai et Hu Jia est devenu impliqué dans le travail de prévention du SIDA et a pris une part active dans l'ONG fondée par Wan Yanhai[1].
+En juillet 2000, l'écrivain Wang Lixiong a présenté Hu Jia à Wan Yanhai et Hu Jia est devenu impliqué dans le travail de prévention du SIDA et a pris une part active dans l'ONG fondée par Wan Yanhai.
 En novembre 2006, il a participé une conférence internationale pour les Principes de Jogjakarta pour les droits de LGBT, et aussi participé aux Outgames mondiaux en 2009.　
-En mai 2010, sous une pression continuelle de la part des autorités chinoises, craignant pour sa vie, il s'enfuit de Chine et trouve refuge avec sa famille aux États-Unis[2]. Il est un des signataires de la Charte 08 et va participer à la cérémonie pour le Prix Nobel de la paix à Liu Xiaobo.
+En mai 2010, sous une pression continuelle de la part des autorités chinoises, craignant pour sa vie, il s'enfuit de Chine et trouve refuge avec sa famille aux États-Unis. Il est un des signataires de la Charte 08 et va participer à la cérémonie pour le Prix Nobel de la paix à Liu Xiaobo.
 </t>
         </is>
       </c>
